--- a/biology/Botanique/Epipremnum/Epipremnum.xlsx
+++ b/biology/Botanique/Epipremnum/Epipremnum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epipremnum est un genre de plantes de la famille des Araceae. Il contient plusieurs espèces utilisées comme plantes d'ornements, notamment d'intérieur, comme Epipremnum aureum ou « pothos ». Ces espèces sont originaires de l'Asie du Sud-Est et d'Océanie.
 </t>
@@ -511,9 +523,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À ce jour, 15 espèces d'Epipremnum sont recensées selon Jardins botaniques royaux de Kew [1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>À ce jour, 15 espèces d'Epipremnum sont recensées selon Jardins botaniques royaux de Kew , :
 Epipremnum amplissimum (Schott) Engl.
 Epipremnum aureum (Linden &amp; André) G.S.Bunting
 Epipremnum carolinense Volkens
@@ -556,9 +570,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces d'Epipremnum contiennent des substances irritantes pour la peau et les muqueuses et sont toxiques pour l'Homme et les animaux[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces d'Epipremnum contiennent des substances irritantes pour la peau et les muqueuses et sont toxiques pour l'Homme et les animaux.
 </t>
         </is>
       </c>
@@ -587,9 +603,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epipremnum est originaire de l'Asie du Sud-Est et du nord de l'Océanie. Il a été également introduit dans les zones intertropicales d'Amérique (Floride aux États-Unis, Cuba, Hispaniola, Colombie, Équateur, nord-est du Brésil) et d'Afrique (Guinée, Côte d'Ivoire, Cameroun, Kenya)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epipremnum est originaire de l'Asie du Sud-Est et du nord de l'Océanie. Il a été également introduit dans les zones intertropicales d'Amérique (Floride aux États-Unis, Cuba, Hispaniola, Colombie, Équateur, nord-est du Brésil) et d'Afrique (Guinée, Côte d'Ivoire, Cameroun, Kenya).
 Il a également été introduit comme plante d'intérieur sur tous les continents, notamment avec les variétés et leurs cultivars : Epipremnum aureum, Epipremnum pinnatum et Epipremnum amplissimum.
 </t>
         </is>
